--- a/Data_frame/balancos_definitivos/BBTG11.xlsx
+++ b/Data_frame/balancos_definitivos/BBTG11.xlsx
@@ -1011,9 +1011,7 @@
           <t>Receitas da Intermediação Financeira</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1021,9 +1019,7 @@
           <t>Despesas da Intermediação Financeira</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1031,9 +1027,7 @@
           <t>Resultado Bruto Intermediação Financeira</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1041,9 +1035,7 @@
           <t>Outras Despesas/Receitas Operacionais</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1051,9 +1043,7 @@
           <t>Receitas de Prestação de Serviços</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1061,9 +1051,7 @@
           <t>Despesas de Pessoal</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1071,9 +1059,7 @@
           <t>Outras Despesas Administrativas</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1081,9 +1067,7 @@
           <t>Despesas Tributárias</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1091,9 +1075,7 @@
           <t>Outras Receitas Operacionais</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1101,9 +1083,7 @@
           <t>Outras Despesas Operacionais</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1111,9 +1091,7 @@
           <t>Resultado da Equivalência Patrimonial</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1121,9 +1099,7 @@
           <t>Resultado Operacional</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1131,9 +1107,7 @@
           <t>Resultado Não Operacional</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1141,9 +1115,7 @@
           <t>Receitas</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1151,9 +1123,7 @@
           <t>Despesas</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1161,9 +1131,7 @@
           <t>Resultado Antes Tributação/Participações</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1171,9 +1139,7 @@
           <t>Provisão para IR e Contribuição Social</t>
         </is>
       </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1181,9 +1147,7 @@
           <t>IR Diferido</t>
         </is>
       </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
+      <c r="B75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1191,9 +1155,7 @@
           <t>Participações/Contribuições Estatutárias</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
+      <c r="B76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1201,9 +1163,7 @@
           <t>Reversão dos Juros sobre Capital Próprio</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
+      <c r="B77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1211,9 +1171,7 @@
           <t>Part. de Acionistas Não Controladores</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
+      <c r="B78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1221,9 +1179,7 @@
           <t>Lucro/Prejuízo do Período</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
+      <c r="B79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
